--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1282290.820664638</v>
+        <v>1287783.127627419</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977803</v>
+        <v>7966425.477977799</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -665,10 +667,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>256.3137886534495</v>
+        <v>188.1680374470261</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
@@ -677,7 +679,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -820,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6846499321094</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,22 +898,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>260.4059240983862</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>157.6146915188441</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -1060,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>5.311770682243415</v>
+        <v>53.03638470914571</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1142,16 +1144,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>127.5812770580752</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>201.8615176106002</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>19.85905444009087</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>302.148007373868</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>384.90449448576</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1531,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>20.98476809240994</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
@@ -1579,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1607,10 +1609,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1622,7 +1624,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>281.6460698592796</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>167.9683453503095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,25 +1846,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>318.9744712724925</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>195.625524452005</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2053,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>272.4154280047202</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>326.2205230446763</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -2093,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>118.8589999133593</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>100.703478806222</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>318.9744712724925</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2327,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>286.2334494731808</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>165.6158245190442</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2567,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>197.6217996051349</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
         <v>136.9537457384598</v>
@@ -2600,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.3978477594957</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -2722,19 +2724,19 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>86.64940239198995</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>223.866617274486</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,22 +2794,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>197.8901560898254</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>287.9802029231673</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2950,25 +2952,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>15.94201223779285</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7109993851801203</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3044,7 +3046,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>231.0622711834879</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>239.6502950934064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>165.6158245190444</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>97.61153143263797</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3278,13 +3280,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>397.2148143877357</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>167.9683453503095</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3433,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>148.606327056135</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>125.5308591184884</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,13 +3511,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>99.68660328817519</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>324.4069712276388</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>76.74086563202123</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3715,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.61153143263803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>195.1036449162748</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3806,7 +3808,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>24.62950557702029</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>182.7432781825933</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>350.9493085602808</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F44" t="n">
         <v>412.725494085322</v>
@@ -3992,10 +3994,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>195.6255244520046</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4147,10 +4149,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>108.1045920014104</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>105.1499684380553</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1836.88438075169</v>
+        <v>2308.97093041498</v>
       </c>
       <c r="C2" t="n">
-        <v>1443.70887925462</v>
+        <v>1915.795428917911</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.267750471288</v>
+        <v>1530.354300134578</v>
       </c>
       <c r="E2" t="n">
-        <v>1058.267750471288</v>
+        <v>1127.770775251123</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4346,7 +4348,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
@@ -4355,25 +4357,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2597.336020850345</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>2226.336985818633</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X2" t="n">
-        <v>1836.88438075169</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y2" t="n">
-        <v>1836.88438075169</v>
+        <v>2709.465676126377</v>
       </c>
     </row>
     <row r="3">
@@ -4383,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.986833370171</v>
+        <v>1586.98683337017</v>
       </c>
       <c r="C3" t="n">
         <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551744</v>
+        <v>1306.243635551743</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662632</v>
+        <v>1169.797144662631</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545763</v>
+        <v>1045.365338545762</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176277</v>
+        <v>925.3055206176268</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182287</v>
+        <v>837.0081042182278</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301403</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="J3" t="n">
-        <v>787.6208502301403</v>
+        <v>900.7358324498667</v>
       </c>
       <c r="K3" t="n">
-        <v>787.6208502301403</v>
+        <v>900.7358324498667</v>
       </c>
       <c r="L3" t="n">
-        <v>1271.186936128453</v>
+        <v>1384.30191834818</v>
       </c>
       <c r="M3" t="n">
-        <v>1898.958585755135</v>
+        <v>2012.073567974861</v>
       </c>
       <c r="N3" t="n">
-        <v>1949.449642343508</v>
+        <v>2183.814733898398</v>
       </c>
       <c r="O3" t="n">
-        <v>2465.969924934489</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P3" t="n">
-        <v>2871.591293650886</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q3" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.039342103841</v>
+        <v>3082.03934210384</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.10866500371</v>
+        <v>2947.108665003709</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202618</v>
+        <v>2770.124853202617</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.06170988126</v>
+        <v>2560.061709881259</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252327</v>
+        <v>2337.521708252326</v>
       </c>
       <c r="W3" t="n">
         <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735625</v>
+        <v>1918.097384735624</v>
       </c>
       <c r="Y3" t="n">
         <v>1738.783167811132</v>
@@ -4462,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D4" t="n">
-        <v>839.6651608782449</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E4" t="n">
         <v>706.6503629670233</v>
@@ -4486,7 +4488,7 @@
         <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4510,28 +4512,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y4" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1184.806062432954</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C5" t="n">
-        <v>1184.806062432954</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D5" t="n">
-        <v>799.3649336496217</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E5" t="n">
-        <v>799.3649336496217</v>
+        <v>738.3181701841793</v>
       </c>
       <c r="F5" t="n">
-        <v>799.3649336496217</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4583,34 +4585,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P5" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q5" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S5" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T5" t="n">
-        <v>2742.243157322405</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U5" t="n">
-        <v>2742.243157322405</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V5" t="n">
-        <v>2742.243157322405</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W5" t="n">
-        <v>2371.244122290693</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X5" t="n">
-        <v>1981.79151722375</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y5" t="n">
-        <v>1585.300808144351</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P6" t="n">
         <v>2380.454662679751</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.677939844913</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C7" t="n">
-        <v>217.677939844913</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D7" t="n">
-        <v>217.677939844913</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J7" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K7" t="n">
         <v>143.9541688140574</v>
@@ -4747,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S7" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T7" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U7" t="n">
-        <v>963.5661502456679</v>
+        <v>115.6912334709294</v>
       </c>
       <c r="V7" t="n">
-        <v>958.2007253141089</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="W7" t="n">
-        <v>674.8703232452866</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X7" t="n">
-        <v>440.7900010282697</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.677939844913</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1510.526376601847</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="C8" t="n">
-        <v>1117.350875104777</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D8" t="n">
-        <v>731.9097463214448</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E8" t="n">
-        <v>329.3262214379893</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F8" t="n">
-        <v>329.3262214379893</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G8" t="n">
-        <v>329.3262214379893</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4811,43 +4813,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M8" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N8" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040976</v>
       </c>
       <c r="O8" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P8" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q8" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S8" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.963471491298</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="U8" t="n">
-        <v>3067.963471491298</v>
+        <v>2626.703053199791</v>
       </c>
       <c r="V8" t="n">
-        <v>3067.963471491298</v>
+        <v>2284.596243903309</v>
       </c>
       <c r="W8" t="n">
-        <v>2696.964436459586</v>
+        <v>2080.695721064319</v>
       </c>
       <c r="X8" t="n">
-        <v>2307.511831392642</v>
+        <v>2080.695721064319</v>
       </c>
       <c r="Y8" t="n">
-        <v>1911.021122313243</v>
+        <v>2080.695721064319</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L9" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M9" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="G10" t="n">
         <v>381.0703742794417</v>
@@ -4960,7 +4962,7 @@
         <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -4984,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>636.8490770607943</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>401.1300252290284</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.298321425685</v>
+        <v>1548.519290316324</v>
       </c>
       <c r="C11" t="n">
-        <v>927.1228199286156</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D11" t="n">
-        <v>927.1228199286156</v>
+        <v>769.9026600359225</v>
       </c>
       <c r="E11" t="n">
-        <v>524.5392950451601</v>
+        <v>367.319135152467</v>
       </c>
       <c r="F11" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G11" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,34 +5059,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>2734.957350174063</v>
       </c>
       <c r="X11" t="n">
-        <v>1320.298321425685</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y11" t="n">
-        <v>1320.298321425685</v>
+        <v>1949.014036027721</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5117,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K12" t="n">
-        <v>112.6101842924878</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L12" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>727.847098413902</v>
       </c>
       <c r="E13" t="n">
         <v>706.6503629670233</v>
@@ -5197,7 +5199,7 @@
         <v>92.49739787801357</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5227,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2535.796644191037</v>
+        <v>1717.587943132963</v>
       </c>
       <c r="C14" t="n">
-        <v>2142.621142693967</v>
+        <v>1717.587943132963</v>
       </c>
       <c r="D14" t="n">
-        <v>1757.180013910635</v>
+        <v>1717.587943132963</v>
       </c>
       <c r="E14" t="n">
-        <v>1354.596489027179</v>
+        <v>1315.004418249508</v>
       </c>
       <c r="F14" t="n">
-        <v>937.702050557157</v>
+        <v>898.1099797794856</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>484.9472242674887</v>
       </c>
       <c r="H14" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5294,7 +5296,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5303,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="U14" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V14" t="n">
-        <v>3105.956385205776</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="W14" t="n">
-        <v>3105.956385205776</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="X14" t="n">
-        <v>3105.956385205776</v>
+        <v>2118.08268884436</v>
       </c>
       <c r="Y14" t="n">
-        <v>2936.291389902433</v>
+        <v>2118.08268884436</v>
       </c>
     </row>
     <row r="15">
@@ -5352,13 +5354,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L15" t="n">
         <v>545.6852136024288</v>
@@ -5367,10 +5369,10 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5467,19 +5469,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>522.652680240431</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C17" t="n">
-        <v>200.4562446116507</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D17" t="n">
-        <v>200.4562446116507</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>200.4562446116507</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F17" t="n">
-        <v>200.4562446116507</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5531,7 +5533,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5540,25 +5542,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T17" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U17" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V17" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W17" t="n">
-        <v>1709.09074009817</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X17" t="n">
-        <v>1319.638135031227</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y17" t="n">
-        <v>923.1474259518279</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.98683337017</v>
       </c>
       <c r="C18" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D18" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551743</v>
       </c>
       <c r="E18" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662631</v>
       </c>
       <c r="F18" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545762</v>
       </c>
       <c r="G18" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176268</v>
       </c>
       <c r="H18" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182278</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>1107.359996292366</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>1107.359996292366</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>1293.671671132948</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1949.449642343507</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2465.969924934488</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2871.591293650885</v>
       </c>
       <c r="Q18" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R18" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.03934210384</v>
       </c>
       <c r="S18" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.108665003709</v>
       </c>
       <c r="T18" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202617</v>
       </c>
       <c r="U18" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.061709881259</v>
       </c>
       <c r="V18" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252326</v>
       </c>
       <c r="W18" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X18" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735624</v>
       </c>
       <c r="Y18" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C19" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5701,22 +5703,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U19" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V19" t="n">
-        <v>678.1273584875689</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W19" t="n">
-        <v>402.9602594929021</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X19" t="n">
-        <v>402.9602594929021</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y19" t="n">
-        <v>402.9602594929021</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1192.540435146691</v>
+        <v>593.6317461087201</v>
       </c>
       <c r="C20" t="n">
-        <v>799.3649336496217</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="D20" t="n">
-        <v>799.3649336496217</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="E20" t="n">
-        <v>799.3649336496217</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F20" t="n">
-        <v>799.3649336496217</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5770,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5777,7 +5779,7 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432349</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T20" t="n">
         <v>2677.949313991765</v>
@@ -5786,16 +5788,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129883</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="W20" t="n">
         <v>1709.09074009817</v>
       </c>
       <c r="X20" t="n">
-        <v>1589.03114422609</v>
+        <v>1319.638135031226</v>
       </c>
       <c r="Y20" t="n">
-        <v>1192.540435146691</v>
+        <v>923.1474259518275</v>
       </c>
     </row>
     <row r="21">
@@ -5826,13 +5828,13 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L21" t="n">
         <v>545.6852136024288</v>
@@ -5841,13 +5843,13 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321.165748153993</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C22" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D22" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E22" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5938,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X22" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.3737668452943</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>522.652680240431</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="C23" t="n">
-        <v>200.4562446116507</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="D23" t="n">
-        <v>200.4562446116507</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="E23" t="n">
-        <v>200.4562446116507</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F23" t="n">
-        <v>200.4562446116507</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G23" t="n">
         <v>200.4562446116507</v>
@@ -5984,7 +5986,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6005,7 +6007,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6014,7 +6016,7 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432349</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T23" t="n">
         <v>2677.949313991765</v>
@@ -6023,16 +6025,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V23" t="n">
-        <v>2080.089775129883</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="W23" t="n">
         <v>1709.09074009817</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.638135031227</v>
+        <v>1319.638135031226</v>
       </c>
       <c r="Y23" t="n">
-        <v>923.1474259518279</v>
+        <v>1030.51343859367</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2267.810399848734</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2530.34759369572</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C25" t="n">
-        <v>2360.142475761709</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3105.956385205776</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>3105.956385205776</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V25" t="n">
-        <v>3105.956385205776</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X25" t="n">
-        <v>2938.667673570378</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y25" t="n">
-        <v>2715.555612387021</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1206.412481019843</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="C26" t="n">
-        <v>813.2369795227737</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="D26" t="n">
-        <v>813.2369795227737</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E26" t="n">
-        <v>813.2369795227737</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F26" t="n">
-        <v>813.2369795227737</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G26" t="n">
-        <v>400.0742240107768</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H26" t="n">
         <v>200.4562446116507</v>
@@ -6224,7 +6226,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K26" t="n">
         <v>565.7512566404055</v>
@@ -6248,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2679.835928796494</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2424.083199231093</v>
       </c>
       <c r="V26" t="n">
-        <v>2763.849575909295</v>
+        <v>2081.976389934612</v>
       </c>
       <c r="W26" t="n">
-        <v>2392.850540877582</v>
+        <v>1710.977354902899</v>
       </c>
       <c r="X26" t="n">
-        <v>2003.397935810639</v>
+        <v>1321.524749835956</v>
       </c>
       <c r="Y26" t="n">
-        <v>1606.90722673124</v>
+        <v>925.034040756557</v>
       </c>
     </row>
     <row r="27">
@@ -6309,19 +6311,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L27" t="n">
-        <v>691.2836731261136</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M27" t="n">
-        <v>1319.055322752795</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N27" t="n">
-        <v>1974.833293963354</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2779.239312020903</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>2779.239312020903</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>2779.239312020903</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>2779.239312020903</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>2691.714663140105</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>2523.46060923955</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K28" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L28" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M28" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N28" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O28" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P28" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>2982.055395838353</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S28" t="n">
-        <v>2779.239312020903</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T28" t="n">
-        <v>2779.239312020903</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U28" t="n">
-        <v>2779.239312020903</v>
+        <v>554.2263691201458</v>
       </c>
       <c r="V28" t="n">
-        <v>2779.239312020903</v>
+        <v>288.2470239409701</v>
       </c>
       <c r="W28" t="n">
-        <v>2779.239312020903</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>2779.239312020903</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>2779.239312020903</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1257.630196454539</v>
+        <v>1494.648893124969</v>
       </c>
       <c r="C29" t="n">
-        <v>864.45469495747</v>
+        <v>1494.648893124969</v>
       </c>
       <c r="D29" t="n">
-        <v>479.0135661741377</v>
+        <v>1494.648893124969</v>
       </c>
       <c r="E29" t="n">
-        <v>479.0135661741377</v>
+        <v>1092.065368241514</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>675.1709297714916</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>262.0081742594948</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6479,7 +6481,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6491,22 +6493,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>2626.703053199791</v>
       </c>
       <c r="V29" t="n">
-        <v>2815.067291343991</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W29" t="n">
-        <v>2444.068256312279</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="X29" t="n">
-        <v>2054.615651245335</v>
+        <v>1895.143638836366</v>
       </c>
       <c r="Y29" t="n">
-        <v>1658.124942165936</v>
+        <v>1895.143638836366</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6539,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.4102853026953</v>
+        <v>729.485828028651</v>
       </c>
       <c r="C31" t="n">
-        <v>351.4102853026953</v>
+        <v>559.2807100946402</v>
       </c>
       <c r="D31" t="n">
-        <v>351.4102853026953</v>
+        <v>559.2807100946402</v>
       </c>
       <c r="E31" t="n">
-        <v>351.4102853026953</v>
+        <v>543.177667430203</v>
       </c>
       <c r="F31" t="n">
-        <v>351.4102853026953</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G31" t="n">
-        <v>350.6921041055436</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H31" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J31" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K31" t="n">
         <v>143.9541688140574</v>
@@ -6643,28 +6645,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>351.4102853026953</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V31" t="n">
-        <v>351.4102853026953</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W31" t="n">
-        <v>351.4102853026953</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X31" t="n">
-        <v>351.4102853026953</v>
+        <v>729.485828028651</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.4102853026953</v>
+        <v>729.485828028651</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2073.376476849992</v>
+        <v>1913.597208871597</v>
       </c>
       <c r="C32" t="n">
-        <v>1680.200975352922</v>
+        <v>1913.597208871597</v>
       </c>
       <c r="D32" t="n">
-        <v>1294.75984656959</v>
+        <v>1528.156080088265</v>
       </c>
       <c r="E32" t="n">
-        <v>892.1763216861347</v>
+        <v>1125.572555204809</v>
       </c>
       <c r="F32" t="n">
-        <v>475.2818832161124</v>
+        <v>708.6781167347871</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>295.5153612227902</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6716,7 +6718,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6725,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2715.942227706244</v>
+        <v>2882.455782765192</v>
       </c>
       <c r="U32" t="n">
-        <v>2715.942227706244</v>
+        <v>2626.703053199791</v>
       </c>
       <c r="V32" t="n">
-        <v>2715.942227706244</v>
+        <v>2284.59624390331</v>
       </c>
       <c r="W32" t="n">
-        <v>2715.942227706244</v>
+        <v>1913.597208871597</v>
       </c>
       <c r="X32" t="n">
-        <v>2715.942227706244</v>
+        <v>1913.597208871597</v>
       </c>
       <c r="Y32" t="n">
-        <v>2473.871222561389</v>
+        <v>1913.597208871597</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L33" t="n">
         <v>865.4243596646552</v>
       </c>
       <c r="M33" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6832,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>387.9573587356116</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C34" t="n">
-        <v>217.7522408016008</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K34" t="n">
         <v>143.9541688140574</v>
@@ -6889,19 +6891,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W34" t="n">
-        <v>963.5661502456679</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X34" t="n">
-        <v>796.2774386102695</v>
+        <v>160.7166342017296</v>
       </c>
       <c r="Y34" t="n">
-        <v>573.1653774269129</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2535.796644191037</v>
+        <v>1606.90722673124</v>
       </c>
       <c r="C35" t="n">
-        <v>2142.621142693967</v>
+        <v>1606.90722673124</v>
       </c>
       <c r="D35" t="n">
-        <v>1757.180013910635</v>
+        <v>1606.90722673124</v>
       </c>
       <c r="E35" t="n">
-        <v>1354.596489027179</v>
+        <v>1204.323701847784</v>
       </c>
       <c r="F35" t="n">
-        <v>937.702050557157</v>
+        <v>787.4292633777619</v>
       </c>
       <c r="G35" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H35" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6971,16 +6973,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>3105.956385205776</v>
+        <v>2763.849575909294</v>
       </c>
       <c r="W35" t="n">
-        <v>3105.956385205776</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X35" t="n">
-        <v>3105.956385205776</v>
+        <v>2003.397935810639</v>
       </c>
       <c r="Y35" t="n">
-        <v>2936.291389902433</v>
+        <v>1606.90722673124</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N36" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O36" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>219.2962454724463</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="C37" t="n">
-        <v>219.2962454724463</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="D37" t="n">
-        <v>219.2962454724463</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="E37" t="n">
-        <v>219.2962454724463</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="F37" t="n">
-        <v>219.2962454724463</v>
+        <v>2510.095314769532</v>
       </c>
       <c r="G37" t="n">
-        <v>219.2962454724463</v>
+        <v>2359.987913702729</v>
       </c>
       <c r="H37" t="n">
-        <v>219.2962454724463</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>2903.140301388325</v>
       </c>
       <c r="T37" t="n">
-        <v>727.847098413902</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="U37" t="n">
-        <v>442.408306655803</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="V37" t="n">
-        <v>442.408306655803</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="W37" t="n">
-        <v>442.408306655803</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="X37" t="n">
-        <v>442.408306655803</v>
+        <v>2667.421249556559</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.2962454724463</v>
+        <v>2667.421249556559</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1344.012821542897</v>
+        <v>1168.419567305365</v>
       </c>
       <c r="C38" t="n">
-        <v>950.8373200458277</v>
+        <v>775.2440658082951</v>
       </c>
       <c r="D38" t="n">
-        <v>565.3961912624954</v>
+        <v>389.8029370249628</v>
       </c>
       <c r="E38" t="n">
-        <v>162.81266637904</v>
+        <v>389.8029370249628</v>
       </c>
       <c r="F38" t="n">
-        <v>62.11912770411553</v>
+        <v>389.8029370249628</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404052</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403514</v>
       </c>
       <c r="N38" t="n">
         <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7199,25 +7201,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U38" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>2901.449916432349</v>
+        <v>2725.856662194816</v>
       </c>
       <c r="W38" t="n">
-        <v>2530.450881400636</v>
+        <v>2354.857627163104</v>
       </c>
       <c r="X38" t="n">
-        <v>2140.998276333693</v>
+        <v>1965.40502209616</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.507567254294</v>
+        <v>1568.914313016762</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.98683337017</v>
       </c>
       <c r="C39" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D39" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551743</v>
       </c>
       <c r="E39" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662631</v>
       </c>
       <c r="F39" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545762</v>
       </c>
       <c r="G39" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176268</v>
       </c>
       <c r="H39" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182278</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301394</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>1271.186936128453</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1898.958585755134</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>2183.814733898398</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>2700.335016489379</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q39" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R39" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.03934210384</v>
       </c>
       <c r="S39" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.108665003709</v>
       </c>
       <c r="T39" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202617</v>
       </c>
       <c r="U39" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.061709881259</v>
       </c>
       <c r="V39" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252326</v>
       </c>
       <c r="W39" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X39" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735624</v>
       </c>
       <c r="Y39" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2204.509362664224</v>
+        <v>778.3581315543667</v>
       </c>
       <c r="C40" t="n">
-        <v>2204.509362664224</v>
+        <v>608.1530136203559</v>
       </c>
       <c r="D40" t="n">
-        <v>2204.509362664224</v>
+        <v>452.5199005228706</v>
       </c>
       <c r="E40" t="n">
-        <v>2204.509362664224</v>
+        <v>296.9610883820731</v>
       </c>
       <c r="F40" t="n">
-        <v>2204.509362664224</v>
+        <v>139.6351535950461</v>
       </c>
       <c r="G40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>2820.517593447677</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>2820.517593447677</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W40" t="n">
-        <v>2537.187191378855</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X40" t="n">
-        <v>2303.106869161838</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y40" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1294.75984656959</v>
+        <v>1440.393671672291</v>
       </c>
       <c r="C41" t="n">
-        <v>1294.75984656959</v>
+        <v>1047.218170175221</v>
       </c>
       <c r="D41" t="n">
-        <v>1294.75984656959</v>
+        <v>661.777041391889</v>
       </c>
       <c r="E41" t="n">
-        <v>892.1763216861347</v>
+        <v>259.1935165084336</v>
       </c>
       <c r="F41" t="n">
-        <v>475.2818832161124</v>
+        <v>259.1935165084336</v>
       </c>
       <c r="G41" t="n">
         <v>62.11912770411553</v>
@@ -7409,10 +7411,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129439</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2901.449916432349</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T41" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U41" t="n">
-        <v>2422.196584426364</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V41" t="n">
-        <v>2080.089775129883</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W41" t="n">
-        <v>1709.09074009817</v>
+        <v>2226.336985818633</v>
       </c>
       <c r="X41" t="n">
-        <v>1319.638135031227</v>
+        <v>1836.88438075169</v>
       </c>
       <c r="Y41" t="n">
-        <v>1294.75984656959</v>
+        <v>1440.393671672291</v>
       </c>
     </row>
     <row r="42">
@@ -7500,7 +7502,7 @@
         <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
         <v>1974.833293963354</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>543.2579285324946</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>387.699116391697</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>230.37318160467</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
         <v>62.11912770411553</v>
@@ -7597,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>543.2579285324946</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V43" t="n">
-        <v>543.2579285324946</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W43" t="n">
-        <v>543.2579285324946</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X43" t="n">
-        <v>543.2579285324946</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y43" t="n">
-        <v>543.2579285324946</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1709.09074009817</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.09074009817</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D44" t="n">
-        <v>1709.09074009817</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F44" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H44" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7664,34 +7666,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491298</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S44" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="T44" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="U44" t="n">
-        <v>2422.196584426364</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="V44" t="n">
-        <v>2080.089775129883</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="W44" t="n">
-        <v>1709.09074009817</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="X44" t="n">
-        <v>1709.09074009817</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y44" t="n">
-        <v>1709.09074009817</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7712,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,28 +7724,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>530.6369877294253</v>
+        <v>854.3695926684857</v>
       </c>
       <c r="C46" t="n">
-        <v>530.6369877294253</v>
+        <v>854.3695926684857</v>
       </c>
       <c r="D46" t="n">
-        <v>375.0038746319401</v>
+        <v>698.7364795710005</v>
       </c>
       <c r="E46" t="n">
-        <v>219.4450624911426</v>
+        <v>543.177667430203</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426215</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N46" t="n">
         <v>677.5630210573304</v>
@@ -7828,28 +7830,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>636.8490770607943</v>
+        <v>854.3695926684857</v>
       </c>
       <c r="U46" t="n">
-        <v>636.8490770607943</v>
+        <v>854.3695926684857</v>
       </c>
       <c r="V46" t="n">
-        <v>636.8490770607943</v>
+        <v>854.3695926684857</v>
       </c>
       <c r="W46" t="n">
-        <v>636.8490770607943</v>
+        <v>854.3695926684857</v>
       </c>
       <c r="X46" t="n">
-        <v>636.8490770607943</v>
+        <v>854.3695926684857</v>
       </c>
       <c r="Y46" t="n">
-        <v>530.6369877294253</v>
+        <v>854.3695926684857</v>
       </c>
     </row>
   </sheetData>
@@ -7988,7 +7990,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>89.59693533333335</v>
@@ -8067,7 +8069,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>136.3731801151494</v>
+        <v>258.8480380294561</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8076,7 +8078,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8234,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8294,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8535,13 +8537,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,7 +8771,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,10 +8780,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -9015,13 +9017,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,16 +9245,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993951</v>
       </c>
       <c r="N18" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9489,16 +9491,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9720,7 +9722,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9732,10 +9734,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>204.7702368236083</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9893,7 +9895,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9957,22 +9959,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>402.611255301132</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>690.2992872583815</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>89.59693533333335</v>
@@ -10197,19 +10199,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>656.2283997181323</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10434,19 +10436,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>454.5321323046928</v>
       </c>
       <c r="N33" t="n">
-        <v>571.8744206036794</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,13 +10664,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10677,13 +10679,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>377.2173282296772</v>
       </c>
       <c r="P36" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10911,10 +10913,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>373.1055958271605</v>
       </c>
       <c r="O39" t="n">
-        <v>239.756709922914</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11148,10 +11150,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>239.756709922914</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11376,7 +11378,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11385,16 +11387,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,10 +22555,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>156.4117054318725</v>
+        <v>224.5574566382959</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22597,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22604,16 +22606,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22710,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E4" t="n">
-        <v>22.31857408728007</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -22784,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>152.3195699869358</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>63.65090489733342</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22844,7 +22846,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22948,7 +22950,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>258.0077810451406</v>
+        <v>210.2831670182383</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23021,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23030,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>193.260942871099</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>165.4275270707952</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -23182,16 +23184,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>146.7124589214581</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23224,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>110.577486711454</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6535845305136831</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23421,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>133.0184559269796</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
@@ -23495,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>39.1961500698946</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
@@ -23561,7 +23563,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.5574566382954</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23732,25 +23734,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>70.26927520960623</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23941,16 +23943,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>8.081670043413965</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>70.26927520960663</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>266.6990791029144</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>67.79958794844872</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -24136,7 +24138,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24178,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24203,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>70.26927520960623</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
         <v>381.5867174954989</v>
@@ -24215,10 +24217,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>106.2923525154241</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24415,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>66.12369447580255</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -24455,10 +24457,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>123.2204203240394</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24488,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>1.867748656681755</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24610,19 +24612,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>69.10327304716682</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>56.63048077364817</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24680,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>122.9520638393488</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24731,22 +24733,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>50.70553828034951</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24838,25 +24840,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>138.0612117815967</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8605139763688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
         <v>263.319551727384</v>
@@ -24901,7 +24903,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>220.8809405715231</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24932,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>320.8422199291742</v>
+        <v>89.77994874568631</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24965,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>152.8755068951984</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25129,19 +25131,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>66.12369447580232</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>123.2694091388851</v>
       </c>
     </row>
     <row r="35">
@@ -25151,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25166,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>11.81631356914119</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,16 +25213,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>224.5574566382954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25321,19 +25323,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>17.96518630541391</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>6.232621990804475</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25360,13 +25362,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
@@ -25378,7 +25380,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25397,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>313.0388907971468</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>84.624156729238</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -25448,7 +25450,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>89.83064772952768</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25603,19 +25605,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>123.269409138885</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25630,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>213.927483040602</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25673,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.8962964115846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>117.3244398042876</v>
       </c>
       <c r="C43" t="n">
         <v>168.5030667546707</v>
@@ -25792,13 +25794,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25837,16 +25839,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>99.84112565792472</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
@@ -25862,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>47.60838107434012</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>189.9325545642692</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>131.7634811092929</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>125.2572693120378</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -26089,7 +26091,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>115.7309721334677</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>636113.3745341901</v>
+        <v>636113.3745341897</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>636113.3745341899</v>
+        <v>636113.3745341901</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>636113.3745341899</v>
+        <v>636113.3745341901</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>636113.3745341901</v>
+        <v>636113.3745341899</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636113.3745341902</v>
+        <v>636113.3745341901</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>636113.3745341898</v>
+        <v>636113.3745341899</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.3498136762</v>
       </c>
       <c r="C2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="D2" t="n">
+        <v>254445.349813676</v>
+      </c>
+      <c r="E2" t="n">
         <v>254445.3498136761</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>254445.349813676</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>254445.3498136761</v>
-      </c>
-      <c r="G2" t="n">
-        <v>254445.349813676</v>
       </c>
       <c r="H2" t="n">
         <v>254445.3498136761</v>
@@ -26338,10 +26340,10 @@
         <v>254445.3498136761</v>
       </c>
       <c r="K2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="L2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="M2" t="n">
         <v>254445.3498136761</v>
@@ -26350,10 +26352,10 @@
         <v>254445.3498136761</v>
       </c>
       <c r="O2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="P2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
     </row>
     <row r="3">
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>548.8206074562067</v>
+      </c>
+      <c r="C4" t="n">
         <v>548.8206074562065</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>548.8206074562066</v>
-      </c>
-      <c r="D4" t="n">
-        <v>548.8206074562065</v>
       </c>
       <c r="E4" t="n">
         <v>548.8206074562065</v>
       </c>
       <c r="F4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="G4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="H4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="I4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="J4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="K4" t="n">
+        <v>548.8206074562066</v>
+      </c>
+      <c r="L4" t="n">
         <v>548.8206074562065</v>
       </c>
-      <c r="G4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="H4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="I4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="J4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="K4" t="n">
-        <v>548.8206074562065</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>548.8206074562066</v>
-      </c>
-      <c r="M4" t="n">
-        <v>548.8206074562065</v>
       </c>
       <c r="N4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="O4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="P4" t="n">
         <v>548.8206074562065</v>
@@ -26476,40 +26478,40 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="K5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="L5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="M5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="N5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="O5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87160.96326873676</v>
+        <v>-87160.96326873661</v>
       </c>
       <c r="C6" t="n">
         <v>173058.3921510921</v>
       </c>
       <c r="D6" t="n">
-        <v>173058.3921510921</v>
+        <v>173058.392151092</v>
       </c>
       <c r="E6" t="n">
+        <v>206685.9921510921</v>
+      </c>
+      <c r="F6" t="n">
         <v>206685.992151092</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>206685.9921510921</v>
-      </c>
-      <c r="G6" t="n">
-        <v>206685.992151092</v>
       </c>
       <c r="H6" t="n">
         <v>206685.9921510921</v>
@@ -26543,13 +26545,13 @@
         <v>206685.9921510921</v>
       </c>
       <c r="J6" t="n">
-        <v>3522.279038397093</v>
+        <v>3522.279038397101</v>
       </c>
       <c r="K6" t="n">
-        <v>206685.9921510921</v>
+        <v>206685.992151092</v>
       </c>
       <c r="L6" t="n">
-        <v>206685.9921510921</v>
+        <v>206685.992151092</v>
       </c>
       <c r="M6" t="n">
         <v>206685.9921510921</v>
@@ -26558,10 +26560,10 @@
         <v>206685.9921510921</v>
       </c>
       <c r="O6" t="n">
-        <v>206685.9921510922</v>
+        <v>206685.9921510921</v>
       </c>
       <c r="P6" t="n">
-        <v>206685.9921510921</v>
+        <v>206685.992151092</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="C4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="D4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="L4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34708,7 +34710,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,7 +34789,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>51.00106726098272</v>
+        <v>173.4759251752894</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34796,7 +34798,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,10 +35500,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35735,13 +35737,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>188.1936109500832</v>
       </c>
       <c r="N18" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36209,16 +36211,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36452,10 +36454,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>113.7820836676943</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36615,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>312.5509084442137</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>597.9121652090696</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,19 +37156,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="N33" t="n">
-        <v>486.5023077495127</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37397,13 +37399,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>284.5297693407883</v>
       </c>
       <c r="P36" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37631,10 +37633,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>287.7334829729938</v>
       </c>
       <c r="O39" t="n">
-        <v>147.0691510340251</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37868,10 +37870,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>147.0691510340251</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -38029,7 +38031,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457864</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
         <v>351.7045375065877</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38105,16 +38107,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_0_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1287783.127627419</v>
+        <v>1283249.304457921</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977799</v>
+        <v>7966425.477977808</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7355457.14680919</v>
+        <v>7355457.146809189</v>
       </c>
     </row>
     <row r="11">
@@ -664,19 +664,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>188.1680374470261</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>275.4100767006845</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>205.6112693997075</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>260.4059240983862</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>175.4272848993637</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>390.658053331923</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
@@ -1195,10 +1195,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>201.8615176106002</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>19.85905444009087</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>140.6401723820808</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>302.148007373868</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>256.7115579699416</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -1536,22 +1536,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>20.98476809240994</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
         <v>398.5576896346209</v>
@@ -1624,10 +1624,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>281.6460698592796</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>30.7771049436456</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>144.7467681673238</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>66.03149870010071</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>260.4059240983868</v>
       </c>
       <c r="X17" t="n">
-        <v>195.625524452005</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
         <v>392.5258019886049</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>145.9951119230965</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>326.2205230446763</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>385.5580790162737</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>233.2385090293388</v>
       </c>
       <c r="Y23" t="n">
-        <v>286.2334494731808</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,19 +2602,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.3978477594957</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>196.7325964808487</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2775,7 +2775,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>223.866617274486</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2806,10 +2806,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>197.8901560898254</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>281.9483152771513</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>15.94201223779285</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>174.8701987037815</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
         <v>381.5867174954989</v>
@@ -3040,13 +3040,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>231.0622711834879</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>327.0410086022657</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.61153143263797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3280,10 +3280,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>397.2148143877357</v>
+        <v>91.86313846158168</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3435,13 +3435,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>148.606327056135</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>191.6541629312303</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>324.4069712276388</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>385.5580790162737</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>76.74086563202123</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>20.79341673727108</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
         <v>389.2437464820987</v>
@@ -3751,10 +3751,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>195.1036449162748</v>
+        <v>256.7115579699411</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.03149870010071</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>86.33074517210657</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>191.6541629312298</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>195.6255244520046</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>108.1045920014104</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>222.483063142781</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2308.97093041498</v>
+        <v>1826.272464974195</v>
       </c>
       <c r="C2" t="n">
-        <v>1915.795428917911</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D2" t="n">
-        <v>1530.354300134578</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E2" t="n">
-        <v>1127.770775251123</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F2" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H2" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4348,34 +4348,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V2" t="n">
-        <v>3105.956385205776</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="W2" t="n">
-        <v>3105.956385205776</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="X2" t="n">
-        <v>3105.956385205776</v>
+        <v>2623.257919764991</v>
       </c>
       <c r="Y2" t="n">
-        <v>2709.465676126377</v>
+        <v>2226.767210685592</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C3" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D3" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E3" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F3" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G3" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H3" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>900.7358324498667</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>900.7358324498667</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>1384.30191834818</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>2012.073567974861</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N3" t="n">
-        <v>2183.814733898398</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O3" t="n">
-        <v>2700.335016489379</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q3" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R3" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S3" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T3" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U3" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V3" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W3" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X3" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y3" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4521,19 +4521,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>470.4392075787734</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1919.518325348037</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C5" t="n">
-        <v>1526.342823850967</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D5" t="n">
-        <v>1140.901695067635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E5" t="n">
-        <v>738.3181701841793</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F5" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G5" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4585,7 +4585,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P5" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q5" t="n">
         <v>3105.956385205776</v>
@@ -4609,10 +4609,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="X5" t="n">
-        <v>2716.503780138833</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y5" t="n">
-        <v>2320.013071059434</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I6" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
         <v>175.2341099238429</v>
@@ -4658,10 +4658,10 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1606.310991511064</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O6" t="n">
-        <v>2122.831274102045</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P6" t="n">
         <v>2380.454662679751</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K7" t="n">
         <v>143.9541688140574</v>
@@ -4749,28 +4749,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>786.3668725695429</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>500.9280808114439</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411552</v>
+        <v>500.9280808114439</v>
       </c>
       <c r="W7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411552</v>
+        <v>217.5976787426216</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1680.200975352922</v>
+        <v>919.1433893198298</v>
       </c>
       <c r="C8" t="n">
-        <v>1680.200975352922</v>
+        <v>919.1433893198298</v>
       </c>
       <c r="D8" t="n">
-        <v>1294.75984656959</v>
+        <v>919.1433893198298</v>
       </c>
       <c r="E8" t="n">
-        <v>892.1763216861345</v>
+        <v>919.1433893198298</v>
       </c>
       <c r="F8" t="n">
-        <v>475.2818832161124</v>
+        <v>919.1433893198298</v>
       </c>
       <c r="G8" t="n">
-        <v>62.11912770411552</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H8" t="n">
-        <v>62.11912770411552</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4813,43 +4813,43 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M8" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N8" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O8" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P8" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q8" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205775</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205775</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2882.455782765192</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2626.703053199791</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2284.596243903309</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W8" t="n">
-        <v>2080.695721064319</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X8" t="n">
-        <v>2080.695721064319</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y8" t="n">
-        <v>2080.695721064319</v>
+        <v>1319.638135031227</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>62.11912770411552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N9" t="n">
-        <v>1345.668748541356</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O9" t="n">
-        <v>1862.189031132337</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2267.810399848734</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>401.1300252290284</v>
+        <v>400.5782995386808</v>
       </c>
       <c r="C10" t="n">
-        <v>401.1300252290284</v>
+        <v>230.37318160467</v>
       </c>
       <c r="D10" t="n">
-        <v>401.1300252290284</v>
+        <v>230.37318160467</v>
       </c>
       <c r="E10" t="n">
-        <v>401.1300252290284</v>
+        <v>230.37318160467</v>
       </c>
       <c r="F10" t="n">
-        <v>401.1300252290284</v>
+        <v>230.37318160467</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U10" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V10" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="W10" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="X10" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="Y10" t="n">
-        <v>401.1300252290284</v>
+        <v>585.786318229982</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1548.519290316324</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C11" t="n">
-        <v>1155.343788819255</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D11" t="n">
-        <v>769.9026600359225</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E11" t="n">
-        <v>367.319135152467</v>
+        <v>738.3181701841797</v>
       </c>
       <c r="F11" t="n">
-        <v>62.11912770411552</v>
+        <v>321.4237317141575</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5059,7 +5059,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
@@ -5080,13 +5080,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W11" t="n">
-        <v>2734.957350174063</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X11" t="n">
-        <v>2345.50474510712</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y11" t="n">
-        <v>1949.014036027721</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1740.468202408463</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5229,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>727.847098413902</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U13" t="n">
-        <v>727.847098413902</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V13" t="n">
-        <v>727.847098413902</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>727.847098413902</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1717.587943132963</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C14" t="n">
-        <v>1717.587943132963</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D14" t="n">
-        <v>1717.587943132963</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.004418249508</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F14" t="n">
-        <v>898.1099797794856</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G14" t="n">
-        <v>484.9472242674887</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H14" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5296,34 +5296,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S14" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T14" t="n">
-        <v>2715.942227706243</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U14" t="n">
-        <v>2460.189498140842</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V14" t="n">
-        <v>2118.08268884436</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="W14" t="n">
-        <v>2118.08268884436</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="X14" t="n">
-        <v>2118.08268884436</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y14" t="n">
-        <v>2118.08268884436</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1778.52287682331</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2184.144245539707</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U16" t="n">
-        <v>678.1273584875689</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V16" t="n">
-        <v>412.1480133083932</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W16" t="n">
-        <v>128.8176112395708</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2073.376476849992</v>
+        <v>1656.48203837997</v>
       </c>
       <c r="C17" t="n">
-        <v>1680.200975352922</v>
+        <v>1263.3065368829</v>
       </c>
       <c r="D17" t="n">
-        <v>1294.75984656959</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E17" t="n">
-        <v>892.1763216861345</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F17" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5533,34 +5533,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>3067.963471491298</v>
+        <v>2842.920098237709</v>
       </c>
       <c r="X17" t="n">
-        <v>2870.361931640788</v>
+        <v>2453.467493170765</v>
       </c>
       <c r="Y17" t="n">
-        <v>2473.871222561389</v>
+        <v>2056.976784091366</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>787.6208502301394</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.359996292366</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.359996292366</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1293.671671132948</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N18" t="n">
-        <v>1949.449642343507</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2465.969924934488</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2871.591293650885</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5703,22 +5703,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U19" t="n">
-        <v>611.4288749521136</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V19" t="n">
-        <v>345.4495297729379</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W19" t="n">
-        <v>62.11912770411552</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411552</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411552</v>
+        <v>247.3271463954168</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>593.6317461087201</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C20" t="n">
-        <v>200.4562446116507</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D20" t="n">
-        <v>200.4562446116507</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>200.4562446116507</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>200.4562446116507</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5770,34 +5770,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129882</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W20" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X20" t="n">
-        <v>1319.638135031226</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y20" t="n">
-        <v>923.1474259518275</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="21">
@@ -5828,19 +5828,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5943,19 +5943,19 @@
         <v>896.8676667102127</v>
       </c>
       <c r="U22" t="n">
-        <v>611.4288749521136</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V22" t="n">
         <v>345.4495297729379</v>
       </c>
       <c r="W22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1030.51343859367</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C23" t="n">
-        <v>1030.51343859367</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D23" t="n">
-        <v>1030.51343859367</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>1030.51343859367</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>613.6190001236475</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6007,34 +6007,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2080.089775129882</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>1709.09074009817</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>1319.638135031226</v>
+        <v>2870.361931640788</v>
       </c>
       <c r="Y23" t="n">
-        <v>1030.51343859367</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411552</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O24" t="n">
-        <v>1862.189031132337</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P24" t="n">
-        <v>2267.810399848734</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
@@ -6180,19 +6180,19 @@
         <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>611.4288749521136</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
         <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>524.5392950451601</v>
+        <v>1271.040909596637</v>
       </c>
       <c r="C26" t="n">
-        <v>524.5392950451601</v>
+        <v>877.865408099568</v>
       </c>
       <c r="D26" t="n">
-        <v>524.5392950451601</v>
+        <v>877.865408099568</v>
       </c>
       <c r="E26" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F26" t="n">
-        <v>524.5392950451601</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G26" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K26" t="n">
         <v>565.7512566404055</v>
@@ -6250,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2679.835928796494</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U26" t="n">
-        <v>2424.083199231093</v>
+        <v>2626.703053199792</v>
       </c>
       <c r="V26" t="n">
-        <v>2081.976389934612</v>
+        <v>2427.983258774692</v>
       </c>
       <c r="W26" t="n">
-        <v>1710.977354902899</v>
+        <v>2056.984223742979</v>
       </c>
       <c r="X26" t="n">
-        <v>1321.524749835956</v>
+        <v>1667.531618676036</v>
       </c>
       <c r="Y26" t="n">
-        <v>925.034040756557</v>
+        <v>1271.040909596637</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>381.858273766342</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>973.7913173233209</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N27" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
         <v>2146.089571124861</v>
@@ -6408,19 +6408,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R28" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>839.6651608782449</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>554.2263691201458</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>288.2470239409701</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
         <v>62.11912770411553</v>
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1494.648893124969</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C29" t="n">
-        <v>1494.648893124969</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D29" t="n">
-        <v>1494.648893124969</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E29" t="n">
-        <v>1092.065368241514</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F29" t="n">
-        <v>675.1709297714916</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G29" t="n">
-        <v>262.0081742594948</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N29" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O29" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P29" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q29" t="n">
         <v>3105.956385205776</v>
@@ -6493,22 +6493,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T29" t="n">
-        <v>2882.455782765192</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U29" t="n">
-        <v>2626.703053199791</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V29" t="n">
-        <v>2284.59624390331</v>
+        <v>2821.160107148048</v>
       </c>
       <c r="W29" t="n">
-        <v>2284.59624390331</v>
+        <v>2450.161072116335</v>
       </c>
       <c r="X29" t="n">
-        <v>1895.143638836366</v>
+        <v>2060.708467049392</v>
       </c>
       <c r="Y29" t="n">
-        <v>1895.143638836366</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I30" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>658.8001958221562</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N30" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>559.2807100946402</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>559.2807100946402</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>385.851732643176</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
         <v>143.9541688140574</v>
@@ -6651,22 +6651,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U31" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V31" t="n">
-        <v>963.5661502456679</v>
+        <v>461.8677532347263</v>
       </c>
       <c r="W31" t="n">
-        <v>963.5661502456679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="X31" t="n">
-        <v>729.485828028651</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y31" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1913.597208871597</v>
+        <v>1567.402333301482</v>
       </c>
       <c r="C32" t="n">
-        <v>1913.597208871597</v>
+        <v>1174.226831804413</v>
       </c>
       <c r="D32" t="n">
-        <v>1528.156080088265</v>
+        <v>788.7857030210803</v>
       </c>
       <c r="E32" t="n">
-        <v>1125.572555204809</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F32" t="n">
-        <v>708.6781167347871</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G32" t="n">
-        <v>295.5153612227902</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M32" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N32" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O32" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P32" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q32" t="n">
         <v>3105.956385205776</v>
@@ -6727,25 +6727,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T32" t="n">
-        <v>2882.455782765192</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U32" t="n">
-        <v>2626.703053199791</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V32" t="n">
-        <v>2284.59624390331</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="W32" t="n">
-        <v>1913.597208871597</v>
+        <v>2353.345647447824</v>
       </c>
       <c r="X32" t="n">
-        <v>1913.597208871597</v>
+        <v>1963.893042380881</v>
       </c>
       <c r="Y32" t="n">
-        <v>1913.597208871597</v>
+        <v>1567.402333301482</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I33" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N33" t="n">
-        <v>1223.947919817482</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P33" t="n">
         <v>2146.089571124861</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
         <v>143.9541688140574</v>
@@ -6888,22 +6888,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>678.1273584875689</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>394.7969564187466</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>160.7166342017296</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1606.90722673124</v>
+        <v>1753.004770289088</v>
       </c>
       <c r="C35" t="n">
-        <v>1606.90722673124</v>
+        <v>1359.829268792018</v>
       </c>
       <c r="D35" t="n">
-        <v>1606.90722673124</v>
+        <v>974.3881400086859</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.323701847784</v>
+        <v>571.8046151252304</v>
       </c>
       <c r="F35" t="n">
-        <v>787.4292633777619</v>
+        <v>154.9101766552081</v>
       </c>
       <c r="G35" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M35" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V35" t="n">
-        <v>2763.849575909294</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="W35" t="n">
-        <v>2392.850540877582</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="X35" t="n">
-        <v>2003.397935810639</v>
+        <v>2549.990225079884</v>
       </c>
       <c r="Y35" t="n">
-        <v>1606.90722673124</v>
+        <v>2153.499516000485</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>175.2341099238429</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>803.0057595505241</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.783730761083</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2667.421249556559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>2667.421249556559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>2667.421249556559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>2667.421249556559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>2510.095314769532</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>2359.987913702729</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>2903.140301388325</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>2667.421249556559</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U37" t="n">
-        <v>2667.421249556559</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V37" t="n">
-        <v>2667.421249556559</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W37" t="n">
-        <v>2667.421249556559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X37" t="n">
-        <v>2667.421249556559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y37" t="n">
-        <v>2667.421249556559</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1168.419567305365</v>
+        <v>1881.525411633559</v>
       </c>
       <c r="C38" t="n">
-        <v>775.2440658082951</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D38" t="n">
-        <v>389.8029370249628</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>389.8029370249628</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>389.8029370249628</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129435</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404052</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403514</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7210,16 +7210,16 @@
         <v>3067.963471491298</v>
       </c>
       <c r="V38" t="n">
-        <v>2725.856662194816</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W38" t="n">
-        <v>2354.857627163104</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X38" t="n">
-        <v>1965.40502209616</v>
+        <v>2678.510866424355</v>
       </c>
       <c r="Y38" t="n">
-        <v>1568.914313016762</v>
+        <v>2282.020157344956</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1586.98683337017</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C39" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D39" t="n">
-        <v>1306.243635551743</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E39" t="n">
-        <v>1169.797144662631</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F39" t="n">
-        <v>1045.365338545762</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G39" t="n">
-        <v>925.3055206176268</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H39" t="n">
-        <v>837.0081042182278</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>787.6208502301394</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>787.6208502301394</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>787.6208502301394</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>1271.186936128453</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1898.958585755134</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>2183.814733898398</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>2700.335016489379</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R39" t="n">
-        <v>3082.03934210384</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S39" t="n">
-        <v>2947.108665003709</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T39" t="n">
-        <v>2770.124853202617</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U39" t="n">
-        <v>2560.061709881259</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V39" t="n">
-        <v>2337.521708252326</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W39" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X39" t="n">
-        <v>1918.097384735624</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y39" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>778.3581315543667</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="C40" t="n">
-        <v>608.1530136203559</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D40" t="n">
-        <v>452.5199005228706</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>296.9610883820731</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>139.6351535950461</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
         <v>143.9541688140574</v>
@@ -7359,25 +7359,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>963.5661502456679</v>
+        <v>942.5626989958992</v>
       </c>
       <c r="T40" t="n">
-        <v>963.5661502456679</v>
+        <v>706.8436471641332</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>706.8436471641332</v>
       </c>
       <c r="V40" t="n">
-        <v>963.5661502456679</v>
+        <v>440.8643019849574</v>
       </c>
       <c r="W40" t="n">
-        <v>963.5661502456679</v>
+        <v>440.8643019849574</v>
       </c>
       <c r="X40" t="n">
-        <v>963.5661502456679</v>
+        <v>440.8643019849574</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.5661502456679</v>
+        <v>217.7522408016008</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1440.393671672291</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C41" t="n">
-        <v>1047.218170175221</v>
+        <v>1526.342823850967</v>
       </c>
       <c r="D41" t="n">
-        <v>661.777041391889</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E41" t="n">
-        <v>259.1935165084336</v>
+        <v>738.3181701841793</v>
       </c>
       <c r="F41" t="n">
-        <v>259.1935165084336</v>
+        <v>321.423731714157</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129439</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L41" t="n">
         <v>1059.071548358934</v>
@@ -7429,7 +7429,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2597.336020850345</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>2226.336985818633</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X41" t="n">
-        <v>1836.88438075169</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y41" t="n">
-        <v>1440.393671672291</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>319.5270185392441</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>149.3219006052333</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>678.1273584875689</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V43" t="n">
-        <v>412.1480133083932</v>
+        <v>727.847098413902</v>
       </c>
       <c r="W43" t="n">
-        <v>128.8176112395708</v>
+        <v>727.847098413902</v>
       </c>
       <c r="X43" t="n">
-        <v>128.8176112395708</v>
+        <v>727.847098413902</v>
       </c>
       <c r="Y43" t="n">
-        <v>128.8176112395708</v>
+        <v>504.7350372305453</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2073.376476849992</v>
+        <v>1881.525411633558</v>
       </c>
       <c r="C44" t="n">
-        <v>1680.200975352922</v>
+        <v>1488.349910136489</v>
       </c>
       <c r="D44" t="n">
         <v>1294.75984656959</v>
@@ -7639,16 +7639,16 @@
         <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7669,31 +7669,31 @@
         <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S44" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T44" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U44" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V44" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W44" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X44" t="n">
-        <v>2870.361931640788</v>
+        <v>2678.510866424354</v>
       </c>
       <c r="Y44" t="n">
-        <v>2473.871222561389</v>
+        <v>2282.020157344955</v>
       </c>
     </row>
     <row r="45">
@@ -7712,10 +7712,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7724,22 +7724,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>854.3695926684857</v>
+        <v>217.677939844913</v>
       </c>
       <c r="C46" t="n">
-        <v>854.3695926684857</v>
+        <v>217.677939844913</v>
       </c>
       <c r="D46" t="n">
-        <v>698.7364795710005</v>
+        <v>217.677939844913</v>
       </c>
       <c r="E46" t="n">
-        <v>543.177667430203</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F46" t="n">
-        <v>385.851732643176</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G46" t="n">
-        <v>217.5976787426215</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
         <v>677.5630210573304</v>
@@ -7836,22 +7836,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>854.3695926684857</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U46" t="n">
-        <v>854.3695926684857</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V46" t="n">
-        <v>854.3695926684857</v>
+        <v>217.677939844913</v>
       </c>
       <c r="W46" t="n">
-        <v>854.3695926684857</v>
+        <v>217.677939844913</v>
       </c>
       <c r="X46" t="n">
-        <v>854.3695926684857</v>
+        <v>217.677939844913</v>
       </c>
       <c r="Y46" t="n">
-        <v>854.3695926684857</v>
+        <v>217.677939844913</v>
       </c>
     </row>
   </sheetData>
@@ -7990,7 +7990,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8060,7 +8060,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8069,13 +8069,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>258.8480380294561</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
         <v>90.98815315591399</v>
@@ -8306,13 +8306,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P6" t="n">
-        <v>347.309009847301</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>90.98815315591399</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>204.7702368236083</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8780,13 +8780,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>335.1420048916687</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9005,13 +9005,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9020,13 +9020,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9184,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,19 +9242,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>280.5807329993951</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9482,16 +9482,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N21" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9719,25 +9719,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>459.8553156798577</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.7702368236083</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9956,13 +9956,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>690.2992872583815</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
@@ -9971,7 +9971,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10193,25 +10193,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>656.2283997181323</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,7 +10427,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10436,16 +10436,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>630.6030013529515</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10667,25 +10667,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
-        <v>377.2173282296772</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10913,13 +10913,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>373.1055958271605</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11153,13 +11153,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>239.756709922914</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,7 +11375,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>412.5657697396227</v>
@@ -11387,10 +11387,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>335.1420048916687</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22552,19 +22552,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>224.5574566382959</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22606,7 +22606,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>63.27566450283229</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>74.88582864842664</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22795,7 +22795,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>152.3195699869358</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22849,7 +22849,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22959,7 +22959,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -22989,22 +22989,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>57.93457641408446</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23026,22 +23026,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>18.37307462495386</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -23083,10 +23083,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>165.4275270707952</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
@@ -23193,16 +23193,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>146.7124589214581</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>80.24076818944229</v>
       </c>
     </row>
     <row r="11">
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>110.577486711454</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23320,7 +23320,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>133.0184559269796</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>39.1961500698946</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>354.7809740726281</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23706,19 +23706,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
         <v>164.8484195083599</v>
@@ -23794,10 +23794,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>106.8831205830086</v>
       </c>
       <c r="X17" t="n">
-        <v>189.9325545642687</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
@@ -23943,13 +23943,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>74.88582864842661</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>70.26927520960663</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>152.3195699869349</v>
       </c>
       <c r="Y23" t="n">
-        <v>106.2923525154241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>1.867748656681755</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>141.9531447226681</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>56.63048077364817</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>122.9520638393488</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24733,16 +24733,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>56.73742592636546</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,22 +24840,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>138.0612117815967</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
@@ -24891,22 +24891,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>105.6268993443526</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
-        <v>89.77994874568631</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>136.9537457384598</v>
@@ -24967,25 +24967,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>40.24803607912969</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25128,22 +25128,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.2694091388851</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>11.81631356914119</v>
+        <v>317.1679894952952</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25204,7 +25204,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
@@ -25213,10 +25213,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>17.96518630541391</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
         <v>131.7634811092929</v>
@@ -25362,19 +25362,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25396,16 +25396,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>189.9325545642687</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>84.624156729238</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25450,10 +25450,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>89.83064772952768</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
@@ -25599,16 +25599,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>179.994506242005</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25617,7 +25617,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>213.927483040602</v>
+        <v>152.3195699869357</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25678,7 +25678,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25687,10 +25687,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>117.3244398042876</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>67.74603679440382</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25839,22 +25839,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>189.9325545642691</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>189.9325545642692</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
         <v>131.7634811092929</v>
@@ -26076,13 +26076,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>125.2572693120378</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>40.83648858460299</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>636113.3745341899</v>
+        <v>636113.3745341901</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>636113.3745341897</v>
+        <v>636113.3745341901</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>636113.3745341899</v>
+        <v>636113.3745341903</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>636113.3745341901</v>
+        <v>636113.3745341899</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>636113.3745341901</v>
+        <v>636113.3745341899</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>636113.3745341901</v>
+        <v>636113.3745341899</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>636113.3745341901</v>
+        <v>636113.3745341902</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>636113.3745341899</v>
+        <v>636113.3745341901</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>636113.3745341899</v>
+        <v>636113.3745341898</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>636113.3745341901</v>
+        <v>636113.3745341898</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.3498136761</v>
       </c>
       <c r="C2" t="n">
+        <v>254445.349813676</v>
+      </c>
+      <c r="D2" t="n">
         <v>254445.3498136761</v>
-      </c>
-      <c r="D2" t="n">
-        <v>254445.349813676</v>
       </c>
       <c r="E2" t="n">
         <v>254445.3498136761</v>
       </c>
       <c r="F2" t="n">
+        <v>254445.3498136761</v>
+      </c>
+      <c r="G2" t="n">
+        <v>254445.3498136762</v>
+      </c>
+      <c r="H2" t="n">
         <v>254445.349813676</v>
-      </c>
-      <c r="G2" t="n">
-        <v>254445.3498136761</v>
-      </c>
-      <c r="H2" t="n">
-        <v>254445.3498136761</v>
       </c>
       <c r="I2" t="n">
         <v>254445.3498136761</v>
@@ -26343,19 +26343,19 @@
         <v>254445.349813676</v>
       </c>
       <c r="L2" t="n">
+        <v>254445.3498136762</v>
+      </c>
+      <c r="M2" t="n">
         <v>254445.349813676</v>
       </c>
-      <c r="M2" t="n">
-        <v>254445.3498136761</v>
-      </c>
       <c r="N2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.3498136759</v>
       </c>
       <c r="O2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="P2" t="n">
-        <v>254445.349813676</v>
+        <v>254445.3498136759</v>
       </c>
     </row>
     <row r="3">
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>548.8206074562067</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="C4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="D4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="E4" t="n">
-        <v>548.8206074562065</v>
+        <v>548.8206074562066</v>
       </c>
       <c r="F4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="G4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="H4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="I4" t="n">
         <v>548.8206074562066</v>
       </c>
       <c r="J4" t="n">
-        <v>548.8206074562066</v>
+        <v>548.8206074562065</v>
       </c>
       <c r="K4" t="n">
         <v>548.8206074562066</v>
@@ -26478,40 +26478,40 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="J5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="K5" t="n">
+        <v>47210.5370551278</v>
+      </c>
+      <c r="L5" t="n">
+        <v>47210.5370551278</v>
+      </c>
+      <c r="M5" t="n">
+        <v>47210.5370551278</v>
+      </c>
+      <c r="N5" t="n">
+        <v>47210.5370551278</v>
+      </c>
+      <c r="O5" t="n">
         <v>47210.53705512779</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>47210.53705512779</v>
-      </c>
-      <c r="M5" t="n">
-        <v>47210.53705512779</v>
-      </c>
-      <c r="N5" t="n">
-        <v>47210.53705512779</v>
-      </c>
-      <c r="O5" t="n">
-        <v>47210.5370551278</v>
-      </c>
-      <c r="P5" t="n">
-        <v>47210.53705512778</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-87160.96326873661</v>
+        <v>-87692.05830060197</v>
       </c>
       <c r="C6" t="n">
-        <v>173058.3921510921</v>
+        <v>172527.2971192269</v>
       </c>
       <c r="D6" t="n">
-        <v>173058.392151092</v>
+        <v>172527.2971192269</v>
       </c>
       <c r="E6" t="n">
-        <v>206685.9921510921</v>
+        <v>206154.8971192269</v>
       </c>
       <c r="F6" t="n">
-        <v>206685.992151092</v>
+        <v>206154.8971192269</v>
       </c>
       <c r="G6" t="n">
-        <v>206685.9921510921</v>
+        <v>206154.897119227</v>
       </c>
       <c r="H6" t="n">
-        <v>206685.9921510921</v>
+        <v>206154.8971192268</v>
       </c>
       <c r="I6" t="n">
-        <v>206685.9921510921</v>
+        <v>206154.897119227</v>
       </c>
       <c r="J6" t="n">
-        <v>3522.279038397101</v>
+        <v>2991.184006531906</v>
       </c>
       <c r="K6" t="n">
-        <v>206685.992151092</v>
+        <v>206154.8971192269</v>
       </c>
       <c r="L6" t="n">
-        <v>206685.992151092</v>
+        <v>206154.897119227</v>
       </c>
       <c r="M6" t="n">
-        <v>206685.9921510921</v>
+        <v>206154.8971192268</v>
       </c>
       <c r="N6" t="n">
-        <v>206685.9921510921</v>
+        <v>206154.8971192268</v>
       </c>
       <c r="O6" t="n">
-        <v>206685.9921510921</v>
+        <v>206154.8971192268</v>
       </c>
       <c r="P6" t="n">
-        <v>206685.992151092</v>
+        <v>206154.8971192268</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="L4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="M4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="N4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="O4" t="n">
         <v>776.489096301444</v>
       </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
         <v>776.489096301444</v>
-      </c>
-      <c r="M4" t="n">
-        <v>776.489096301444</v>
-      </c>
-      <c r="N4" t="n">
-        <v>776.489096301444</v>
-      </c>
-      <c r="O4" t="n">
-        <v>776.4890963014441</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014439</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34780,7 +34780,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34789,13 +34789,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>173.4759251752894</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P6" t="n">
-        <v>260.2256450279863</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7820836676943</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35500,13 +35500,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>249.769892037502</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35740,13 +35740,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>188.1936109500832</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N21" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>374.483202825691</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7820836676943</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P26" t="n">
         <v>351.7045375065877</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9121652090696</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
@@ -36691,7 +36691,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36913,25 +36913,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>570.8562868639657</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37156,16 +37156,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>545.2308884987849</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37387,25 +37387,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>284.5297693407883</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37633,13 +37633,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>287.7334829729938</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37873,13 +37873,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
         <v>322.9688344062893</v>
@@ -38107,10 +38107,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>249.769892037502</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
